--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="H2">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="I2">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="J2">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N2">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O2">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P2">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q2">
-        <v>4219.935548582962</v>
+        <v>13580.8842557766</v>
       </c>
       <c r="R2">
-        <v>37979.41993724665</v>
+        <v>122227.9583019894</v>
       </c>
       <c r="S2">
-        <v>0.55068617521956</v>
+        <v>0.6923364145143451</v>
       </c>
       <c r="T2">
-        <v>0.5506861752195599</v>
+        <v>0.6923364145143449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="H3">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="I3">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="J3">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O3">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P3">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q3">
-        <v>1256.526866245149</v>
+        <v>2254.150422804729</v>
       </c>
       <c r="R3">
-        <v>11308.74179620634</v>
+        <v>20287.35380524256</v>
       </c>
       <c r="S3">
-        <v>0.1639721664150808</v>
+        <v>0.1149137561375512</v>
       </c>
       <c r="T3">
-        <v>0.1639721664150808</v>
+        <v>0.1149137561375512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="H4">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="I4">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="J4">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N4">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O4">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P4">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q4">
-        <v>199.212680755119</v>
+        <v>428.9141889029796</v>
       </c>
       <c r="R4">
-        <v>1792.914126796071</v>
+        <v>3860.227700126817</v>
       </c>
       <c r="S4">
-        <v>0.02599652718798272</v>
+        <v>0.02186550640493892</v>
       </c>
       <c r="T4">
-        <v>0.02599652718798272</v>
+        <v>0.02186550640493892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="H5">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="I5">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="J5">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N5">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O5">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P5">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q5">
-        <v>10.938658088028</v>
+        <v>57.90407529583934</v>
       </c>
       <c r="R5">
-        <v>98.44792279225202</v>
+        <v>521.136677662554</v>
       </c>
       <c r="S5">
-        <v>0.001427454925597952</v>
+        <v>0.002951877000132613</v>
       </c>
       <c r="T5">
-        <v>0.001427454925597952</v>
+        <v>0.002951877000132613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>58.02833699999999</v>
       </c>
       <c r="I6">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="J6">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N6">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O6">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P6">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q6">
-        <v>1256.526866245149</v>
+        <v>2254.150422804729</v>
       </c>
       <c r="R6">
-        <v>11308.74179620634</v>
+        <v>20287.35380524256</v>
       </c>
       <c r="S6">
-        <v>0.1639721664150808</v>
+        <v>0.1149137561375512</v>
       </c>
       <c r="T6">
-        <v>0.1639721664150808</v>
+        <v>0.1149137561375512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>58.02833699999999</v>
       </c>
       <c r="I7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="J7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q7">
         <v>374.1430994428409</v>
@@ -880,10 +880,10 @@
         <v>3367.287894985568</v>
       </c>
       <c r="S7">
-        <v>0.04882430787033121</v>
+        <v>0.01907334508600656</v>
       </c>
       <c r="T7">
-        <v>0.04882430787033121</v>
+        <v>0.01907334508600656</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>58.02833699999999</v>
       </c>
       <c r="I8">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="J8">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N8">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O8">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P8">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q8">
-        <v>59.31751387757099</v>
+        <v>71.19102718597698</v>
       </c>
       <c r="R8">
-        <v>533.857624898139</v>
+        <v>640.7192446737928</v>
       </c>
       <c r="S8">
-        <v>0.007740718895989214</v>
+        <v>0.003629229111982746</v>
       </c>
       <c r="T8">
-        <v>0.007740718895989214</v>
+        <v>0.003629229111982745</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>58.02833699999999</v>
       </c>
       <c r="I9">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="J9">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N9">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O9">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P9">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q9">
-        <v>3.257091870252</v>
+        <v>9.610898182473999</v>
       </c>
       <c r="R9">
-        <v>29.313826832268</v>
+        <v>86.498083642266</v>
       </c>
       <c r="S9">
-        <v>0.0004250385921107475</v>
+        <v>0.0004899515129205398</v>
       </c>
       <c r="T9">
-        <v>0.0004250385921107475</v>
+        <v>0.0004899515129205397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="H10">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="I10">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="J10">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N10">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O10">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P10">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q10">
-        <v>199.212680755119</v>
+        <v>428.9141889029796</v>
       </c>
       <c r="R10">
-        <v>1792.914126796071</v>
+        <v>3860.227700126817</v>
       </c>
       <c r="S10">
-        <v>0.02599652718798272</v>
+        <v>0.02186550640493892</v>
       </c>
       <c r="T10">
-        <v>0.02599652718798272</v>
+        <v>0.02186550640493892</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="H11">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="I11">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="J11">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O11">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P11">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q11">
-        <v>59.31751387757099</v>
+        <v>71.19102718597698</v>
       </c>
       <c r="R11">
-        <v>533.857624898139</v>
+        <v>640.7192446737928</v>
       </c>
       <c r="S11">
-        <v>0.007740718895989214</v>
+        <v>0.003629229111982746</v>
       </c>
       <c r="T11">
-        <v>0.007740718895989214</v>
+        <v>0.003629229111982745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="H12">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="I12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="J12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N12">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q12">
-        <v>9.404336089200999</v>
+        <v>13.54605325968011</v>
       </c>
       <c r="R12">
-        <v>84.639024802809</v>
+        <v>121.914479337121</v>
       </c>
       <c r="S12">
-        <v>0.001227231509064258</v>
+        <v>0.0006905607740996827</v>
       </c>
       <c r="T12">
-        <v>0.001227231509064258</v>
+        <v>0.0006905607740996825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="H13">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="I13">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="J13">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N13">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O13">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P13">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q13">
-        <v>0.516386891812</v>
+        <v>1.828738027800222</v>
       </c>
       <c r="R13">
-        <v>4.647482026308</v>
+        <v>16.458642250202</v>
       </c>
       <c r="S13">
-        <v>6.738660321031595E-05</v>
+        <v>9.322676678543275E-05</v>
       </c>
       <c r="T13">
-        <v>6.738660321031595E-05</v>
+        <v>9.322676678543272E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="H14">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="I14">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="J14">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N14">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O14">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P14">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q14">
-        <v>10.938658088028</v>
+        <v>57.90407529583934</v>
       </c>
       <c r="R14">
-        <v>98.44792279225202</v>
+        <v>521.136677662554</v>
       </c>
       <c r="S14">
-        <v>0.001427454925597952</v>
+        <v>0.002951877000132613</v>
       </c>
       <c r="T14">
-        <v>0.001427454925597952</v>
+        <v>0.002951877000132613</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="H15">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="I15">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="J15">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O15">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P15">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q15">
-        <v>3.257091870252</v>
+        <v>9.610898182473999</v>
       </c>
       <c r="R15">
-        <v>29.313826832268</v>
+        <v>86.498083642266</v>
       </c>
       <c r="S15">
-        <v>0.0004250385921107475</v>
+        <v>0.0004899515129205398</v>
       </c>
       <c r="T15">
-        <v>0.0004250385921107475</v>
+        <v>0.0004899515129205397</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="H16">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="I16">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="J16">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N16">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O16">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P16">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q16">
-        <v>0.516386891812</v>
+        <v>1.828738027800222</v>
       </c>
       <c r="R16">
-        <v>4.647482026308</v>
+        <v>16.458642250202</v>
       </c>
       <c r="S16">
-        <v>6.738660321031595E-05</v>
+        <v>9.322676678543275E-05</v>
       </c>
       <c r="T16">
-        <v>6.738660321031595E-05</v>
+        <v>9.322676678543272E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="H17">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="I17">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="J17">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N17">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O17">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P17">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q17">
-        <v>0.028354518544</v>
+        <v>0.2468824468804445</v>
       </c>
       <c r="R17">
-        <v>0.2551906668960001</v>
+        <v>2.221942021924</v>
       </c>
       <c r="S17">
-        <v>3.700161101377655E-06</v>
+        <v>1.258575692573422E-05</v>
       </c>
       <c r="T17">
-        <v>3.700161101377655E-06</v>
+        <v>1.258575692573422E-05</v>
       </c>
     </row>
   </sheetData>
